--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="F401" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B1B1" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B159" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C9BF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="89BA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D83A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8103" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E735" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DB1D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FD14" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BE07" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E35B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B1B1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ECDF" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C9BF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F017" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D83A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8EAE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E735" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A702" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FD14" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D424" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E35B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="897C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="ECDF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D8FE" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F017" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FE5E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8EAE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="901F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A702" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ED53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D424" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B2FA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="897C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FE29" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D8FE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CF3D" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FE5E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9F99" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="901F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F684" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ED53" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DECA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B2FA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CCA9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FE29" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FFDE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CF3D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DC6A" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9F99" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8C37" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F684" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CC89" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DECA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF80" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CCA9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="807E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FFDE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C5A1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="DC6A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C123" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8C37" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="92BC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CC89" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E8E9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FF80" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D69D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="807E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A860" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C5A1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FEE7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C123" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DD58" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="92BC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9821" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E8E9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8B65" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D69D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D2F1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A860" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D85C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FEE7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DDFA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="DD58" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C677" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9821" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B0F6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8B65" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DD0A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D2F1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A22B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D85C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F863" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DDFA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BC54" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C677" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8B29" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B0F6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B45F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DD0A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9A20" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A22B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B6DC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F863" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F897" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BC54" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9921" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8B29" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B42A" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B45F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BE3C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9A20" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8F3A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B6DC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AC09" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F897" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AF06" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9921" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AE92" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.3.xlsx
@@ -864,7 +864,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B42A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BB3F" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -934,7 +934,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BE3C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="855C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -1120,7 +1120,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8F3A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA76" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1209,7 +1209,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AC09" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D38D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -1430,7 +1430,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AF06" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A96A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -1524,7 +1524,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AE92" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E9C1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
